--- a/biology/Zoologie/Anguis_veronensis/Anguis_veronensis.xlsx
+++ b/biology/Zoologie/Anguis_veronensis/Anguis_veronensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orvet de Vérone
-L'Orvet de Vérone (Anguis veronensis) est une espèce de sauriens de la famille des Anguidae[1].
+L'Orvet de Vérone (Anguis veronensis) est une espèce de sauriens de la famille des Anguidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Italie et dans le sud-est de la France[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Italie et dans le sud-est de la France.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de veron[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été rétablie en 2013 par Gvoždík et al.[2] dans un premier temps sous le nom d'Anguis cinerea[3],[4]. Il est apparu que le nom Anguis veronensis était antérieur et a donc été adopté.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été rétablie en 2013 par Gvoždík et al. dans un premier temps sous le nom d'Anguis cinerea,. Il est apparu que le nom Anguis veronensis était antérieur et a donc été adopté.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pollini, 1818 : Lettera del sig. dott. Ciro Pollini al Direttore della Biblioteca Italiana intorno ad alcune malattie degli ulivi e ad alcuni serpenti del Veronese, per servire di appendice alla sua Memoria su lo stesso argomento inserita nel T. VIII, p. 63 di questa Biblioteca, ed a quella del sig. Bernardino Angelini intorno al Marasso da noi pure inserita nel T. VII, pag. 451. Biblioteca Italiana ossia Giornale di letteratura scienze ed arti, vol. 9, p. 236–240.</t>
         </is>
